--- a/recorded interviews_Initial Assessment.xlsx
+++ b/recorded interviews_Initial Assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Job Candidate Information</t>
   </si>
@@ -135,10 +135,13 @@
     <t>na</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Hudson</t>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Jennings</t>
   </si>
 </sst>
 </file>
@@ -661,18 +664,19 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="10" customWidth="1"/>
     <col min="2" max="4" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="28" customWidth="1"/>
-    <col min="6" max="132" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="132" width="13.5703125" style="9" customWidth="1"/>
     <col min="133" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -721,10 +725,12 @@
       <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -740,10 +746,10 @@
       <c r="E3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -804,8 +810,12 @@
       <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="26">
+        <v>3</v>
+      </c>
+      <c r="G7" s="26">
+        <v>4</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -821,8 +831,12 @@
       <c r="E8" s="26">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="26">
+        <v>4</v>
+      </c>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -838,8 +852,12 @@
       <c r="E9" s="26">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="26">
+        <v>4</v>
+      </c>
+      <c r="G9" s="26">
+        <v>5</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -855,8 +873,12 @@
       <c r="E10" s="26">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="26">
+        <v>3</v>
+      </c>
+      <c r="G10" s="26">
+        <v>5</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -872,8 +894,12 @@
       <c r="E11" s="26">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="26">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26">
+        <v>4</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -885,8 +911,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -932,8 +958,12 @@
       <c r="E15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="26">
+        <v>4</v>
+      </c>
+      <c r="G15" s="26">
+        <v>4</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -945,8 +975,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -992,8 +1022,12 @@
       <c r="E19" s="26">
         <v>5</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="26">
+        <v>5</v>
+      </c>
+      <c r="G19" s="26">
+        <v>5</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1009,8 +1043,12 @@
       <c r="E20" s="26">
         <v>2</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="26">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>4</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1026,8 +1064,12 @@
       <c r="E21" s="26">
         <v>4</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26">
+        <v>5</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1043,8 +1085,12 @@
       <c r="E22" s="26">
         <v>2</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="26">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>4</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1060,8 +1106,12 @@
       <c r="E23" s="26">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="26">
+        <v>4</v>
+      </c>
+      <c r="G23" s="26">
+        <v>5</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1073,8 +1123,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1085,12 +1135,16 @@
         <v>25</v>
       </c>
       <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:11" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,6 +1154,12 @@
       <c r="E28" s="28">
         <v>3</v>
       </c>
+      <c r="F28" s="28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -1108,6 +1168,12 @@
       <c r="E29" s="28">
         <v>5</v>
       </c>
+      <c r="F29" s="28">
+        <v>3</v>
+      </c>
+      <c r="G29" s="28">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -1116,6 +1182,12 @@
       <c r="E30" s="28">
         <v>3</v>
       </c>
+      <c r="F30" s="28">
+        <v>3</v>
+      </c>
+      <c r="G30" s="28">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -1124,61 +1196,99 @@
       <c r="E31" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="28">
+        <v>4</v>
+      </c>
+      <c r="G31" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="28">
+        <v>5</v>
+      </c>
+      <c r="G35" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="28">
+        <v>4</v>
+      </c>
+      <c r="G36" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="28">
+        <v>4</v>
+      </c>
+      <c r="G40" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="28">
         <v>4</v>
+      </c>
+      <c r="F41" s="28">
+        <v>4</v>
+      </c>
+      <c r="G41" s="28">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/recorded interviews_Initial Assessment.xlsx
+++ b/recorded interviews_Initial Assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Job Candidate Information</t>
   </si>
@@ -142,6 +142,39 @@
   </si>
   <si>
     <t>Jennings</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Malikeya</t>
+  </si>
+  <si>
+    <t>Khantrece</t>
+  </si>
+  <si>
+    <t>Arzell</t>
+  </si>
+  <si>
+    <t>West-Estell</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Chal</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Obiofuma</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Bechtel</t>
   </si>
 </sst>
 </file>
@@ -335,7 +368,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -355,6 +387,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -661,26 +696,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.7109375" style="10" customWidth="1"/>
     <col min="2" max="4" width="13.5703125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="132" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.5703125" style="27" customWidth="1"/>
+    <col min="13" max="132" width="13.5703125" style="9" customWidth="1"/>
     <col min="133" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -714,48 +750,75 @@
       <c r="K1" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -768,9 +831,10 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -783,9 +847,10 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -798,127 +863,184 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="26">
-        <v>3</v>
-      </c>
-      <c r="F7" s="26">
-        <v>3</v>
-      </c>
-      <c r="G7" s="26">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25">
+        <v>3</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2</v>
+      </c>
+      <c r="I7" s="25">
+        <v>4</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>3</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="26">
-        <v>4</v>
-      </c>
-      <c r="F8" s="26">
-        <v>4</v>
-      </c>
-      <c r="G8" s="26">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="25">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>5</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2</v>
+      </c>
+      <c r="I8" s="25">
+        <v>5</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2</v>
+      </c>
+      <c r="K8" s="25">
+        <v>4</v>
+      </c>
+      <c r="L8" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="26">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26">
-        <v>4</v>
-      </c>
-      <c r="G9" s="26">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="25">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>3</v>
+      </c>
+      <c r="I9" s="25">
+        <v>5</v>
+      </c>
+      <c r="J9" s="25">
+        <v>2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>5</v>
+      </c>
+      <c r="L9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="26">
-        <v>4</v>
-      </c>
-      <c r="F10" s="26">
-        <v>3</v>
-      </c>
-      <c r="G10" s="26">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="25">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>3</v>
+      </c>
+      <c r="G10" s="25">
+        <v>5</v>
+      </c>
+      <c r="H10" s="25">
+        <v>3</v>
+      </c>
+      <c r="I10" s="25">
+        <v>5</v>
+      </c>
+      <c r="J10" s="25">
+        <v>3</v>
+      </c>
+      <c r="K10" s="25">
+        <v>5</v>
+      </c>
+      <c r="L10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="26">
-        <v>3</v>
-      </c>
-      <c r="F11" s="26">
-        <v>3</v>
-      </c>
-      <c r="G11" s="26">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3</v>
+      </c>
+      <c r="I11" s="25">
+        <v>4</v>
+      </c>
+      <c r="J11" s="25">
+        <v>2</v>
+      </c>
+      <c r="K11" s="25">
+        <v>4</v>
+      </c>
+      <c r="L11" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -931,9 +1053,10 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
@@ -946,43 +1069,56 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="26">
-        <v>4</v>
-      </c>
-      <c r="G15" s="26">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="25">
+        <v>4</v>
+      </c>
+      <c r="G15" s="25">
+        <v>4</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3</v>
+      </c>
+      <c r="I15" s="25">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25">
+        <v>3</v>
+      </c>
+      <c r="K15" s="25">
+        <v>3</v>
+      </c>
+      <c r="L15" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -995,9 +1131,10 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1010,285 +1147,491 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="26">
-        <v>5</v>
-      </c>
-      <c r="F19" s="26">
-        <v>5</v>
-      </c>
-      <c r="G19" s="26">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="25">
+        <v>5</v>
+      </c>
+      <c r="F19" s="25">
+        <v>5</v>
+      </c>
+      <c r="G19" s="25">
+        <v>5</v>
+      </c>
+      <c r="H19" s="25">
+        <v>3</v>
+      </c>
+      <c r="I19" s="25">
+        <v>5</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2</v>
+      </c>
+      <c r="K19" s="25">
+        <v>5</v>
+      </c>
+      <c r="L19" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="26">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26">
-        <v>2</v>
-      </c>
-      <c r="G20" s="26">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="25">
+        <v>2</v>
+      </c>
+      <c r="F20" s="25">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25">
+        <v>4</v>
+      </c>
+      <c r="H20" s="25">
+        <v>2</v>
+      </c>
+      <c r="I20" s="25">
+        <v>4</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="25">
+        <v>3</v>
+      </c>
+      <c r="L20" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="26">
-        <v>4</v>
-      </c>
-      <c r="F21" s="26">
-        <v>4</v>
-      </c>
-      <c r="G21" s="26">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="25">
+        <v>4</v>
+      </c>
+      <c r="F21" s="25">
+        <v>4</v>
+      </c>
+      <c r="G21" s="25">
+        <v>5</v>
+      </c>
+      <c r="H21" s="25">
+        <v>2</v>
+      </c>
+      <c r="I21" s="25">
+        <v>5</v>
+      </c>
+      <c r="J21" s="25">
+        <v>2</v>
+      </c>
+      <c r="K21" s="25">
+        <v>5</v>
+      </c>
+      <c r="L21" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="26">
-        <v>2</v>
-      </c>
-      <c r="F22" s="26">
-        <v>2</v>
-      </c>
-      <c r="G22" s="26">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
+        <v>2</v>
+      </c>
+      <c r="F22" s="25">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25">
+        <v>4</v>
+      </c>
+      <c r="H22" s="25">
+        <v>2</v>
+      </c>
+      <c r="I22" s="25">
+        <v>4</v>
+      </c>
+      <c r="J22" s="25">
+        <v>2</v>
+      </c>
+      <c r="K22" s="25">
+        <v>3</v>
+      </c>
+      <c r="L22" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="26">
-        <v>5</v>
-      </c>
-      <c r="F23" s="26">
-        <v>4</v>
-      </c>
-      <c r="G23" s="26">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="25">
+        <v>5</v>
+      </c>
+      <c r="F23" s="25">
+        <v>4</v>
+      </c>
+      <c r="G23" s="25">
+        <v>5</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+      <c r="I23" s="25">
+        <v>5</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="25">
+        <v>5</v>
+      </c>
+      <c r="L23" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="28">
-        <v>3</v>
-      </c>
-      <c r="F28" s="28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="27">
+        <v>3</v>
+      </c>
+      <c r="F28" s="27">
+        <v>3</v>
+      </c>
+      <c r="G28" s="27">
+        <v>4</v>
+      </c>
+      <c r="H28" s="27">
+        <v>4</v>
+      </c>
+      <c r="I28" s="27">
+        <v>4</v>
+      </c>
+      <c r="J28" s="27">
+        <v>3</v>
+      </c>
+      <c r="K28" s="27">
+        <v>3</v>
+      </c>
+      <c r="L28" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="28">
-        <v>5</v>
-      </c>
-      <c r="F29" s="28">
-        <v>3</v>
-      </c>
-      <c r="G29" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="27">
+        <v>5</v>
+      </c>
+      <c r="F29" s="27">
+        <v>3</v>
+      </c>
+      <c r="G29" s="27">
+        <v>5</v>
+      </c>
+      <c r="H29" s="27">
+        <v>3</v>
+      </c>
+      <c r="I29" s="27">
+        <v>5</v>
+      </c>
+      <c r="J29" s="27">
+        <v>2</v>
+      </c>
+      <c r="K29" s="27">
+        <v>4</v>
+      </c>
+      <c r="L29" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="28">
-        <v>3</v>
-      </c>
-      <c r="F30" s="28">
-        <v>3</v>
-      </c>
-      <c r="G30" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="27">
+        <v>3</v>
+      </c>
+      <c r="F30" s="27">
+        <v>3</v>
+      </c>
+      <c r="G30" s="27">
+        <v>5</v>
+      </c>
+      <c r="H30" s="27">
+        <v>3</v>
+      </c>
+      <c r="I30" s="27">
+        <v>5</v>
+      </c>
+      <c r="J30" s="27">
+        <v>2</v>
+      </c>
+      <c r="K30" s="27">
+        <v>4</v>
+      </c>
+      <c r="L30" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="29">
-        <v>4</v>
-      </c>
-      <c r="F31" s="28">
-        <v>4</v>
-      </c>
-      <c r="G31" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="28">
+        <v>4</v>
+      </c>
+      <c r="F31" s="27">
+        <v>4</v>
+      </c>
+      <c r="G31" s="27">
+        <v>4</v>
+      </c>
+      <c r="H31" s="27">
+        <v>3</v>
+      </c>
+      <c r="I31" s="27">
+        <v>5</v>
+      </c>
+      <c r="J31" s="27">
+        <v>2</v>
+      </c>
+      <c r="K31" s="27">
+        <v>5</v>
+      </c>
+      <c r="L31" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="28">
-        <v>4</v>
-      </c>
-      <c r="F35" s="28">
-        <v>5</v>
-      </c>
-      <c r="G35" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="27">
+        <v>4</v>
+      </c>
+      <c r="F35" s="27">
+        <v>5</v>
+      </c>
+      <c r="G35" s="27">
+        <v>5</v>
+      </c>
+      <c r="H35" s="27">
+        <v>3</v>
+      </c>
+      <c r="I35" s="27">
+        <v>5</v>
+      </c>
+      <c r="J35" s="27">
+        <v>4</v>
+      </c>
+      <c r="K35" s="27">
+        <v>5</v>
+      </c>
+      <c r="L35" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="28">
-        <v>3</v>
-      </c>
-      <c r="F36" s="28">
-        <v>4</v>
-      </c>
-      <c r="G36" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="27">
+        <v>3</v>
+      </c>
+      <c r="F36" s="27">
+        <v>4</v>
+      </c>
+      <c r="G36" s="27">
+        <v>4</v>
+      </c>
+      <c r="H36" s="27">
+        <v>5</v>
+      </c>
+      <c r="I36" s="27">
+        <v>5</v>
+      </c>
+      <c r="J36" s="27">
+        <v>2</v>
+      </c>
+      <c r="K36" s="27">
+        <v>4</v>
+      </c>
+      <c r="L36" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="28">
-        <v>5</v>
-      </c>
-      <c r="F40" s="28">
-        <v>4</v>
-      </c>
-      <c r="G40" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="27">
+        <v>5</v>
+      </c>
+      <c r="F40" s="27">
+        <v>4</v>
+      </c>
+      <c r="G40" s="27">
+        <v>5</v>
+      </c>
+      <c r="H40" s="27">
+        <v>3</v>
+      </c>
+      <c r="I40" s="27">
+        <v>5</v>
+      </c>
+      <c r="J40" s="27">
+        <v>2</v>
+      </c>
+      <c r="K40" s="27">
+        <v>5</v>
+      </c>
+      <c r="L40" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="28">
-        <v>4</v>
-      </c>
-      <c r="F41" s="28">
-        <v>4</v>
-      </c>
-      <c r="G41" s="28">
-        <v>5</v>
+      <c r="E41" s="27">
+        <v>4</v>
+      </c>
+      <c r="F41" s="27">
+        <v>4</v>
+      </c>
+      <c r="G41" s="27">
+        <v>5</v>
+      </c>
+      <c r="H41" s="27">
+        <v>3</v>
+      </c>
+      <c r="I41" s="27">
+        <v>5</v>
+      </c>
+      <c r="J41" s="27">
+        <v>2</v>
+      </c>
+      <c r="K41" s="27">
+        <v>5</v>
+      </c>
+      <c r="L41" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/recorded interviews_Initial Assessment.xlsx
+++ b/recorded interviews_Initial Assessment.xlsx
@@ -253,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -313,11 +313,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,6 +401,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +716,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,8 +729,8 @@
     <col min="5" max="6" width="13.5703125" style="27" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="13.5703125" style="27" customWidth="1"/>
-    <col min="13" max="132" width="13.5703125" style="9" customWidth="1"/>
-    <col min="133" max="16384" width="9.140625" style="9"/>
+    <col min="13" max="131" width="13.5703125" style="9" customWidth="1"/>
+    <col min="132" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -832,7 +849,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -848,7 +865,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -959,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
